--- a/Part_list_cabinet.xlsx
+++ b/Part_list_cabinet.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AI_PRO_DESK\Desktop\Local Document\Eplan_AI_Camera\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C55964C-041E-47E0-B845-A9566988EBD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50E0B726-5FDD-4261-9044-C48BDAB1D5DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{B16E92B4-FBAC-48FA-8404-FE85A4C7730E}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{B16E92B4-FBAC-48FA-8404-FE85A4C7730E}"/>
   </bookViews>
   <sheets>
-    <sheet name="Part list AL_12" sheetId="1" r:id="rId1"/>
+    <sheet name="Part list Cabin1" sheetId="1" r:id="rId1"/>
     <sheet name="Part list AL_13_14" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Part list AL_12'!$B$1:$F$14</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Part list AL_13_14'!$B$1:$F$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Part list AL_13_14'!$B$1:$F$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Part list Cabin1'!$B$1:$F$15</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="58">
   <si>
     <t>No.</t>
   </si>
@@ -206,6 +206,25 @@
   </si>
   <si>
     <t>Camera Oildipping</t>
+  </si>
+  <si>
+    <t>Len Camera Final</t>
+  </si>
+  <si>
+    <t>C125-0618-5M-P</t>
+  </si>
+  <si>
+    <t>6mm, aperture range from F1.8–F22</t>
+  </si>
+  <si>
+    <t>Len Camera 
+Oildipping</t>
+  </si>
+  <si>
+    <t>4mm, aperture range from F1.8–F22</t>
+  </si>
+  <si>
+    <t>C125-0418-5M-P</t>
   </si>
 </sst>
 </file>
@@ -251,7 +270,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -274,25 +293,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -637,10 +644,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41B367D7-13F9-4AD4-A4A5-9B17E551AA29}">
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N15"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:F14"/>
+    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -666,7 +673,7 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -674,263 +681,283 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="3">
+      <c r="F2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="F4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A5" s="3">
+      <c r="F5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="4">
+        <v>2909575</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="31" x14ac:dyDescent="0.35">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1</v>
+      </c>
+      <c r="N9" s="5"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="58" x14ac:dyDescent="0.35">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="4">
+        <v>2966728</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="3" t="s">
+    </row>
+    <row r="12" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="4">
+        <v>3209523</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="4">
+        <v>3209510</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="2">
         <v>17</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A6" s="3">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="5">
-        <v>2909575</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="3" t="s">
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="4">
+        <v>3209536</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="29" x14ac:dyDescent="0.35">
-      <c r="A7" s="3">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="31" x14ac:dyDescent="0.35">
-      <c r="A8" s="3">
-        <v>7</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="3" t="s">
+      <c r="F14" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="3">
-        <v>1</v>
-      </c>
-      <c r="N8" s="6"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A9" s="3">
-        <v>8</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="58" x14ac:dyDescent="0.35">
-      <c r="A10" s="3">
-        <v>9</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="5">
-        <v>2966728</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="29" x14ac:dyDescent="0.35">
-      <c r="A11" s="3">
-        <v>10</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="5">
-        <v>3209523</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="29" x14ac:dyDescent="0.35">
-      <c r="A12" s="3">
-        <v>11</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="5">
-        <v>3209510</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" s="3">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A13" s="3">
-        <v>12</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="5">
-        <v>3209536</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F13" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A14" s="3">
-        <v>13</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F14" s="3">
+      <c r="F15" s="2">
         <v>1</v>
       </c>
     </row>
@@ -942,10 +969,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{781835CE-0FBE-44C3-8E47-3375C121EBCC}">
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -971,7 +998,7 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -979,303 +1006,343 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="29" x14ac:dyDescent="0.35">
-      <c r="A3" s="3">
+      <c r="F2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="F4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C6" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="3">
+      <c r="F6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="4">
+        <v>2909575</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="31" x14ac:dyDescent="0.35">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="2">
+        <v>1</v>
+      </c>
+      <c r="N12" s="5"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="58" x14ac:dyDescent="0.35">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="4">
+        <v>2966728</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A6" s="3">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="3" t="s">
+    </row>
+    <row r="15" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+      <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="B15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="4">
+        <v>3209523</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+      <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A7" s="3">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3" t="s">
+      <c r="B16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="4">
+        <v>3209510</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="B17" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="4">
+        <v>3209536</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" s="2">
         <v>17</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A8" s="3">
-        <v>7</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="5">
-        <v>2909575</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="29" x14ac:dyDescent="0.35">
-      <c r="A9" s="3">
-        <v>8</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="31" x14ac:dyDescent="0.35">
-      <c r="A10" s="3">
-        <v>9</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="3" t="s">
+      <c r="B18" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="3">
-        <v>1</v>
-      </c>
-      <c r="N10" s="6"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A11" s="3">
-        <v>10</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F11" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="58" x14ac:dyDescent="0.35">
-      <c r="A12" s="3">
-        <v>11</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="5">
-        <v>2966728</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="29" x14ac:dyDescent="0.35">
-      <c r="A13" s="3">
-        <v>12</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="5">
-        <v>3209523</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F13" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="29" x14ac:dyDescent="0.35">
-      <c r="A14" s="3">
-        <v>13</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="5">
-        <v>3209510</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F14" s="3">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A15" s="3">
-        <v>14</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="5">
-        <v>3209536</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F15" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A16" s="3">
-        <v>15</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F16" s="3">
+      <c r="F18" s="2">
         <v>1</v>
       </c>
     </row>

--- a/Part_list_cabinet.xlsx
+++ b/Part_list_cabinet.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AI_PRO_DESK\Desktop\Local Document\Eplan_AI_Camera\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AI_PRO_DESK\Desktop\Local Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C55964C-041E-47E0-B845-A9566988EBD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DAF4ED7-E8B3-4F4D-B704-EFDC424278E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{B16E92B4-FBAC-48FA-8404-FE85A4C7730E}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{B16E92B4-FBAC-48FA-8404-FE85A4C7730E}"/>
   </bookViews>
   <sheets>
-    <sheet name="Part list AL_12" sheetId="1" r:id="rId1"/>
-    <sheet name="Part list AL_13_14" sheetId="2" r:id="rId2"/>
+    <sheet name="Part list AL12" sheetId="1" r:id="rId1"/>
+    <sheet name="Part list AL1314" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Part list AL_12'!$B$1:$F$14</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Part list AL_13_14'!$B$1:$F$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Part list AL12'!$B$1:$F$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Part list AL1314'!$B$1:$F$18</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="58">
   <si>
     <t>No.</t>
   </si>
@@ -206,6 +206,25 @@
   </si>
   <si>
     <t>Camera Oildipping</t>
+  </si>
+  <si>
+    <t>Len Camera Final</t>
+  </si>
+  <si>
+    <t>C125-0618-5M-P</t>
+  </si>
+  <si>
+    <t>6mm, aperture range from F1.8–F22</t>
+  </si>
+  <si>
+    <t>Len Camera 
+Oildipping</t>
+  </si>
+  <si>
+    <t>4mm, aperture range from F1.8–F22</t>
+  </si>
+  <si>
+    <t>C125-0418-5M-P</t>
   </si>
 </sst>
 </file>
@@ -251,7 +270,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -274,25 +293,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -637,10 +644,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41B367D7-13F9-4AD4-A4A5-9B17E551AA29}">
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N15"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:F14"/>
+    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -666,7 +673,7 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -674,263 +681,283 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="3">
+      <c r="F2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="F4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A5" s="3">
+      <c r="F5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="4">
+        <v>2909575</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="31" x14ac:dyDescent="0.35">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1</v>
+      </c>
+      <c r="N9" s="5"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="58" x14ac:dyDescent="0.35">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="4">
+        <v>2966728</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="3" t="s">
+    </row>
+    <row r="12" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="4">
+        <v>3209523</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="4">
+        <v>3209510</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="2">
         <v>17</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A6" s="3">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="5">
-        <v>2909575</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="3" t="s">
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="4">
+        <v>3209536</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="29" x14ac:dyDescent="0.35">
-      <c r="A7" s="3">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="31" x14ac:dyDescent="0.35">
-      <c r="A8" s="3">
-        <v>7</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="3" t="s">
+      <c r="F14" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="3">
-        <v>1</v>
-      </c>
-      <c r="N8" s="6"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A9" s="3">
-        <v>8</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="58" x14ac:dyDescent="0.35">
-      <c r="A10" s="3">
-        <v>9</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="5">
-        <v>2966728</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="29" x14ac:dyDescent="0.35">
-      <c r="A11" s="3">
-        <v>10</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="5">
-        <v>3209523</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="29" x14ac:dyDescent="0.35">
-      <c r="A12" s="3">
-        <v>11</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="5">
-        <v>3209510</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" s="3">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A13" s="3">
-        <v>12</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="5">
-        <v>3209536</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F13" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A14" s="3">
-        <v>13</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F14" s="3">
+      <c r="F15" s="2">
         <v>1</v>
       </c>
     </row>
@@ -942,10 +969,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{781835CE-0FBE-44C3-8E47-3375C121EBCC}">
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -971,7 +998,7 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -979,303 +1006,343 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="29" x14ac:dyDescent="0.35">
-      <c r="A3" s="3">
+      <c r="F2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="F4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C6" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="3">
+      <c r="F6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="4">
+        <v>2909575</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="31" x14ac:dyDescent="0.35">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="2">
+        <v>1</v>
+      </c>
+      <c r="N12" s="5"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="58" x14ac:dyDescent="0.35">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="4">
+        <v>2966728</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A6" s="3">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="3" t="s">
+    </row>
+    <row r="15" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+      <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="B15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="4">
+        <v>3209523</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+      <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A7" s="3">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3" t="s">
+      <c r="B16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="4">
+        <v>3209510</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="B17" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="4">
+        <v>3209536</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" s="2">
         <v>17</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A8" s="3">
-        <v>7</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="5">
-        <v>2909575</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="29" x14ac:dyDescent="0.35">
-      <c r="A9" s="3">
-        <v>8</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="31" x14ac:dyDescent="0.35">
-      <c r="A10" s="3">
-        <v>9</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="3" t="s">
+      <c r="B18" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="3">
-        <v>1</v>
-      </c>
-      <c r="N10" s="6"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A11" s="3">
-        <v>10</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F11" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="58" x14ac:dyDescent="0.35">
-      <c r="A12" s="3">
-        <v>11</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="5">
-        <v>2966728</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="29" x14ac:dyDescent="0.35">
-      <c r="A13" s="3">
-        <v>12</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="5">
-        <v>3209523</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F13" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="29" x14ac:dyDescent="0.35">
-      <c r="A14" s="3">
-        <v>13</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="5">
-        <v>3209510</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F14" s="3">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A15" s="3">
-        <v>14</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="5">
-        <v>3209536</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F15" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A16" s="3">
-        <v>15</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F16" s="3">
+      <c r="F18" s="2">
         <v>1</v>
       </c>
     </row>
